--- a/src/test/java/com/testData/LoginData.xlsx
+++ b/src/test/java/com/testData/LoginData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A83809-B41C-4823-BF23-D571DF8FE846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4C8BF871-5BF8-425F-93E0-61A34CC76B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="22284" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -50,6 +45,12 @@
   </si>
   <si>
     <t>jahetAp</t>
+  </si>
+  <si>
+    <t>mngr318825</t>
+  </si>
+  <si>
+    <t>qYsEpes</t>
   </si>
 </sst>
 </file>
@@ -127,7 +128,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,48 +443,48 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -491,12 +492,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
